--- a/biology/Zoologie/Arigomphus/Arigomphus.xlsx
+++ b/biology/Zoologie/Arigomphus/Arigomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arigomphus est un genre de libellules de la famille des Gomphidae (sous-ordre des Anisoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après que Theodore Dru Alison Cockerell ait signalé à James George Needham que le genre Orcus qu'il souhaitait utiliser était déjà occupé, celui-ci l'a rebaptisé Arigomphus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après que Theodore Dru Alison Cockerell ait signalé à James George Needham que le genre Orcus qu'il souhaitait utiliser était déjà occupé, celui-ci l'a rebaptisé Arigomphus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 avril 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 avril 2020) :
 Arigomphus cornutus (Tough, 1900)
 Arigomphus furcifer (Hagen in Selys, 1878)
 Arigomphus lentulus (Needham, 1902)
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) James G. Needham, « Preliminary studies of N. American Gomphinae », The Canadian Entomologist, Ottawa, Société d'entomologie du Canada, vol. 29, no 8,‎ août 1897, p. 181-186 (ISSN 0008-347X et 1918-3240, OCLC 01553087, DOI 10.4039/ENT29181-8, lire en ligne)</t>
         </is>
